--- a/pred_ohlcv/54_21/2020-01-22 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MXC ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-11924777.00811765</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12005155.90811765</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-12005155.90811765</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-36420103.40511765</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-36139438.73372517</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-36470565.96372516</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-46209838.97702517</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-46414637.20642517</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-46414269.95372517</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-45993336.66352516</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-47236354.02792517</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-47137683.65052517</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-47066500.46052517</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-46561710.18702517</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-46410979.65782516</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-46410979.65782516</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-46310979.65782516</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-46440648.84702516</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-46440948.84702516</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-46440948.84702516</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-46446640.95162516</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-46446294.45512516</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-46446294.45512516</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-46446594.45512516</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-45973828.82892516</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-45984432.03057181</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-44824485.84408711</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-41424104.72448711</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-41317500.72448711</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MXC ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-11924777.00811765</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12005155.90811765</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-12005155.90811765</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-46209838.97702517</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-46414637.20642517</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-46430979.65782516</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-46450979.65782516</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-46410979.65782516</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-46410979.65782516</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-46310979.65782516</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-46440648.84702516</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-46440948.84702516</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-46440948.84702516</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-46446640.95162516</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-46446294.45512516</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-46446294.45512516</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-46446594.45512516</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-45973828.82892516</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-45984432.03057181</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-44824485.84408711</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-44841477.66288711</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-41317500.72448711</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
